--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H2">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I2">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J2">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N2">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q2">
-        <v>7.570925365556</v>
+        <v>0.1157377641224444</v>
       </c>
       <c r="R2">
-        <v>68.138328290004</v>
+        <v>1.041639877102</v>
       </c>
       <c r="S2">
-        <v>0.007582525897698091</v>
+        <v>0.0001258823391688469</v>
       </c>
       <c r="T2">
-        <v>0.00758252589769809</v>
+        <v>0.0001258823391688469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H3">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I3">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J3">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q3">
-        <v>87.35606962568599</v>
+        <v>0.4767099208397778</v>
       </c>
       <c r="R3">
-        <v>786.2046266311739</v>
+        <v>4.290389287558</v>
       </c>
       <c r="S3">
-        <v>0.08748992075280315</v>
+        <v>0.000518494204508913</v>
       </c>
       <c r="T3">
-        <v>0.08748992075280315</v>
+        <v>0.000518494204508913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H4">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I4">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J4">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N4">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q4">
-        <v>102.896005099592</v>
+        <v>0.6172379837164444</v>
       </c>
       <c r="R4">
-        <v>926.0640458963279</v>
+        <v>5.555141853448</v>
       </c>
       <c r="S4">
-        <v>0.1030536672553809</v>
+        <v>0.0006713397463932933</v>
       </c>
       <c r="T4">
-        <v>0.1030536672553809</v>
+        <v>0.0006713397463932933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H5">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I5">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J5">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N5">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O5">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P5">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q5">
-        <v>10.092298645148</v>
+        <v>0.02923048421822222</v>
       </c>
       <c r="R5">
-        <v>90.83068780633199</v>
+        <v>0.263074357964</v>
       </c>
       <c r="S5">
-        <v>0.01010776254542012</v>
+        <v>3.179257657453147E-05</v>
       </c>
       <c r="T5">
-        <v>0.01010776254542012</v>
+        <v>3.179257657453147E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>33.85786</v>
       </c>
       <c r="I6">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J6">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N6">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q6">
-        <v>10.33715828453778</v>
+        <v>28.95784140325111</v>
       </c>
       <c r="R6">
-        <v>93.03442456083999</v>
+        <v>260.62057262926</v>
       </c>
       <c r="S6">
-        <v>0.01035299737040213</v>
+        <v>0.03149603623986739</v>
       </c>
       <c r="T6">
-        <v>0.01035299737040213</v>
+        <v>0.03149603623986739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>33.85786</v>
       </c>
       <c r="I7">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J7">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q7">
         <v>119.2738635285044</v>
@@ -883,10 +883,10 @@
         <v>1073.46477175654</v>
       </c>
       <c r="S7">
-        <v>0.1194566206183932</v>
+        <v>0.1297283825769213</v>
       </c>
       <c r="T7">
-        <v>0.1194566206183932</v>
+        <v>0.1297283825769213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>33.85786</v>
       </c>
       <c r="I8">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J8">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N8">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q8">
-        <v>140.4917153720978</v>
+        <v>154.4342918324711</v>
       </c>
       <c r="R8">
-        <v>1264.42543834888</v>
+        <v>1389.90862649224</v>
       </c>
       <c r="S8">
-        <v>0.1407069834643294</v>
+        <v>0.1679706710351579</v>
       </c>
       <c r="T8">
-        <v>0.1407069834643294</v>
+        <v>0.1679706710351579</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>33.85786</v>
       </c>
       <c r="I9">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J9">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N9">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O9">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P9">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q9">
-        <v>13.77978034552444</v>
+        <v>7.313531003035556</v>
       </c>
       <c r="R9">
-        <v>124.01802310972</v>
+        <v>65.82177902732001</v>
       </c>
       <c r="S9">
-        <v>0.0138008943807435</v>
+        <v>0.00795457210726834</v>
       </c>
       <c r="T9">
-        <v>0.0138008943807435</v>
+        <v>0.00795457210726834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H10">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I10">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J10">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N10">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q10">
-        <v>0.5748391154208888</v>
+        <v>2.275569921598222</v>
       </c>
       <c r="R10">
-        <v>5.173552038787999</v>
+        <v>20.480129294384</v>
       </c>
       <c r="S10">
-        <v>0.0005757199112698757</v>
+        <v>0.002475026771469341</v>
       </c>
       <c r="T10">
-        <v>0.0005757199112698756</v>
+        <v>0.002475026771469341</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H11">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I11">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J11">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.705039</v>
       </c>
       <c r="O11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q11">
-        <v>6.632701204364221</v>
+        <v>9.37279863159289</v>
       </c>
       <c r="R11">
-        <v>59.694310839278</v>
+        <v>84.355187684336</v>
       </c>
       <c r="S11">
-        <v>0.006642864144796861</v>
+        <v>0.0101943373906484</v>
       </c>
       <c r="T11">
-        <v>0.006642864144796861</v>
+        <v>0.0101943373906484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H12">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I12">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J12">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N12">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q12">
-        <v>7.812604892512887</v>
+        <v>12.13578127124623</v>
       </c>
       <c r="R12">
-        <v>70.31344403261599</v>
+        <v>109.222031441216</v>
       </c>
       <c r="S12">
-        <v>0.007824575737527604</v>
+        <v>0.01319949927881579</v>
       </c>
       <c r="T12">
-        <v>0.007824575737527602</v>
+        <v>0.01319949927881579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H13">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I13">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J13">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N13">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O13">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P13">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q13">
-        <v>0.7662799123782221</v>
+        <v>0.5747131127431112</v>
       </c>
       <c r="R13">
-        <v>6.896519211404</v>
+        <v>5.172418014688001</v>
       </c>
       <c r="S13">
-        <v>0.0007674540429268897</v>
+        <v>0.0006250875116835122</v>
       </c>
       <c r="T13">
-        <v>0.0007674540429268896</v>
+        <v>0.0006250875116835122</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H14">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I14">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J14">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N14">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q14">
-        <v>17.87487594898289</v>
+        <v>54.54101979025477</v>
       </c>
       <c r="R14">
-        <v>160.873883540846</v>
+        <v>490.8691781122929</v>
       </c>
       <c r="S14">
-        <v>0.01790226468456935</v>
+        <v>0.05932161558424474</v>
       </c>
       <c r="T14">
-        <v>0.01790226468456935</v>
+        <v>0.05932161558424472</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H15">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I15">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J15">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.705039</v>
       </c>
       <c r="O15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q15">
-        <v>206.2467707123112</v>
+        <v>224.6478962495441</v>
       </c>
       <c r="R15">
-        <v>1856.220936410801</v>
+        <v>2021.831066245897</v>
       </c>
       <c r="S15">
-        <v>0.2065627918295891</v>
+        <v>0.2443385949579528</v>
       </c>
       <c r="T15">
-        <v>0.2065627918295891</v>
+        <v>0.2443385949579528</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H16">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I16">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J16">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N16">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q16">
-        <v>242.9363965425969</v>
+        <v>290.8712583177258</v>
       </c>
       <c r="R16">
-        <v>2186.427568883372</v>
+        <v>2617.841324859532</v>
       </c>
       <c r="S16">
-        <v>0.243308635250615</v>
+        <v>0.3163665262729969</v>
       </c>
       <c r="T16">
-        <v>0.243308635250615</v>
+        <v>0.3163665262729968</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H17">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I17">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J17">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N17">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O17">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P17">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q17">
-        <v>23.82781200602422</v>
+        <v>13.77476427260289</v>
       </c>
       <c r="R17">
-        <v>214.450308054218</v>
+        <v>123.972878453426</v>
       </c>
       <c r="S17">
-        <v>0.02386432211353488</v>
+        <v>0.01498214140632811</v>
       </c>
       <c r="T17">
-        <v>0.02386432211353487</v>
+        <v>0.01498214140632811</v>
       </c>
     </row>
   </sheetData>
